--- a/Fragenbaum.xlsx
+++ b/Fragenbaum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C4A875-76D4-48A1-9C7A-93DF6BC8DBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB1CC90-5B54-45E6-A5B5-A18C12FDA460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -50,15 +50,9 @@
     <t>Upload</t>
   </si>
   <si>
-    <t>Um welche Unterlage handelt es sich</t>
-  </si>
-  <si>
     <t>Nein</t>
   </si>
   <si>
-    <t>Ist diese Unterlage vollständig?</t>
-  </si>
-  <si>
     <t>Ja</t>
   </si>
   <si>
@@ -90,6 +84,12 @@
   </si>
   <si>
     <t>10. Müssen Sie eine Projektbeschreibung hochladen?</t>
+  </si>
+  <si>
+    <t>1.1 Um welche Unterlage handelt es sich</t>
+  </si>
+  <si>
+    <t>1.1.1 Ist diese Unterlage vollständig?</t>
   </si>
 </sst>
 </file>
@@ -125,8 +125,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -464,7 +465,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A2" sqref="A2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -489,141 +490,151 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2" s="1"/>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Fragenbaum.xlsx
+++ b/Fragenbaum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81638B58-775B-4245-BEAD-11D7FDD9CC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0C4B86-6BE6-46D9-A6C3-C5ABFDACA75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -89,17 +89,62 @@
     <t>1.1 Um welche Unterlage handelt es sich</t>
   </si>
   <si>
-    <t>1.1.1 Ist diese Unterlage vollständig?</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1.1.1 Einbauanleitung</t>
+  </si>
+  <si>
+    <t>1.1.2 Bedienungsanleitung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -462,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -502,8 +547,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -516,131 +561,146 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B6">
-    <sortCondition ref="A2:A6"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
+    <sortCondition ref="A2:A7"/>
   </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Fragenbaum.xlsx
+++ b/Fragenbaum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0C4B86-6BE6-46D9-A6C3-C5ABFDACA75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6E62AB-158F-4D06-B676-8A262679AA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -510,7 +510,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D4" sqref="D4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -585,7 +585,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">

--- a/Fragenbaum.xlsx
+++ b/Fragenbaum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6E62AB-158F-4D06-B676-8A262679AA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8548C17-B9B3-45A2-8DE6-C0E5B1B4D2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
   <si>
     <t>ID</t>
   </si>
@@ -50,45 +50,9 @@
     <t>Upload</t>
   </si>
   <si>
-    <t>Nein</t>
-  </si>
-  <si>
     <t>Ja</t>
   </si>
   <si>
-    <t>1. Benötigen Sie technische Unterlagen?</t>
-  </si>
-  <si>
-    <t>2. Möchten Sie Bildmaterial hochladen?</t>
-  </si>
-  <si>
-    <t>3. Wollen Sie ein Formular zur Freigabe senden?</t>
-  </si>
-  <si>
-    <t>4. Müssen Sie ein Vertragsexemplar hochladen?</t>
-  </si>
-  <si>
-    <t>5.Haben Sie ergänzende Unterlagen?</t>
-  </si>
-  <si>
-    <t>6. Wollen Sie interne Notizen bereitstellen?</t>
-  </si>
-  <si>
-    <t>7. Möchten Sie Videoaufnahmen hochladen?</t>
-  </si>
-  <si>
-    <t>8. Benötigen Sie eine Upload-Möglichkeit für Präsentationen?</t>
-  </si>
-  <si>
-    <t>9. Möchten Sie Planungsdokumente übermitteln?</t>
-  </si>
-  <si>
-    <t>10. Müssen Sie eine Projektbeschreibung hochladen?</t>
-  </si>
-  <si>
-    <t>1.1 Um welche Unterlage handelt es sich</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -125,17 +89,173 @@
     <t>13</t>
   </si>
   <si>
-    <t>1.1.1 Einbauanleitung</t>
-  </si>
-  <si>
-    <t>1.1.2 Bedienungsanleitung</t>
+    <t xml:space="preserve">Erstmalige Erstellung mit unserer Kanzlei (Ja: erstmalig; Nein: wir haben die Erklärung im Vorjahr gemeinsam erstellt)? </t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>A1. Stammdaten</t>
+  </si>
+  <si>
+    <t>A1.1 Name/Firma</t>
+  </si>
+  <si>
+    <t>A1.2 Anschrift</t>
+  </si>
+  <si>
+    <t>A1.3 Steuernummer</t>
+  </si>
+  <si>
+    <t>A1.3 AMA-Betreibsnummer</t>
+  </si>
+  <si>
+    <t>A1.3 SVS-Versicherungsnummer</t>
+  </si>
+  <si>
+    <t>A1.3 Bankverbindung (IBAN/BIC)</t>
+  </si>
+  <si>
+    <t>A1.3 Familienstand &amp; Kinder</t>
+  </si>
+  <si>
+    <t>A1.3 Vollmacht &amp; DSGVO-Einwilligung</t>
+  </si>
+  <si>
+    <t>A2. Betriebsstruktur</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2.1 Vollerwerb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2.1 Nebenerwerb </t>
+  </si>
+  <si>
+    <t>A3. Nebetätigkeiten gesamt (Erstaufnahme)</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>A3.1 Be /Verarbeitung eigener Naturprodukte (Direktvermarktung) (Einnahmenübersicht upload)</t>
+  </si>
+  <si>
+    <t>A3.2 Buschenschank / Mostbuschenschank / Almausschank (Nächtigungen/Einnahmen – upload)</t>
+  </si>
+  <si>
+    <t>A3.3 Urlaub am Bauernhof (Betten, Nächtigungen, Einnahmen – upload)</t>
+  </si>
+  <si>
+    <t>A3.4 Vermietung land-/forstw. Betriebsmittel (an wen? Bezirk? Kondition – upload)</t>
+  </si>
+  <si>
+    <t>A3.5 Dienstleistungen für andere land-/forstw. Betriebe (Art, Auftraggeber, Entgelte – upload)</t>
+  </si>
+  <si>
+    <t>A3.6 Sonstige (Beschreibung – Absatz)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2.3 Tierhaltung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2.2 Flächenaufstellung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2.3.1 Ja </t>
+  </si>
+  <si>
+    <t>A2.4 Waldflächen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2.4 Hektar &amp; typische Nutzungen angeben </t>
+  </si>
+  <si>
+    <t>B1. Stammdaten &amp; Betreiber</t>
+  </si>
+  <si>
+    <t>B1.1 Änderungen bei Name/Adresse/Bank? (Ja/Nein – Pflicht)</t>
+  </si>
+  <si>
+    <t>B1.2 Betriebsführerwechsel / Mitunternehmerschaft geändert? (Ja/Nein – Pflicht)</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>B2. Flächen &amp; Bewirtschaftung</t>
+  </si>
+  <si>
+    <t>B2.2 Bewirtschaftungsart geändert (Voll/Neben, Bio/konv.)? (Wenn Ja: Kurzbeschreibung angeben)</t>
+  </si>
+  <si>
+    <t>Check: „Ich habe alle Änderungen/Unterlagen für 2024 übermittelt.“ (Ja/Nein – Pflicht)</t>
+  </si>
+  <si>
+    <t>Freitext: „Gibt es noch etwas, das wir wissen sollten?“ (Absatz – optional)</t>
+  </si>
+  <si>
+    <t>Bestätigung: „Ich bestätige die Richtigkeit/Vollständigkeit.“ (Checkbox – Pflicht)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +268,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,9 +296,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -507,24 +637,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.3984375" customWidth="1"/>
-    <col min="2" max="2" width="8.53125" customWidth="1"/>
-    <col min="3" max="3" width="48.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.53125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="95.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -538,162 +668,417 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Fragenbaum.xlsx
+++ b/Fragenbaum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8548C17-B9B3-45A2-8DE6-C0E5B1B4D2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6F75C7-059E-418A-803C-474248885137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
+    <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
   <si>
     <t>ID</t>
   </si>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -801,9 +801,6 @@
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
@@ -841,9 +838,6 @@
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C15" s="1" t="s">
         <v>54</v>
       </c>
@@ -877,9 +871,6 @@
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C18" s="1" t="s">
         <v>56</v>
       </c>
@@ -902,9 +893,6 @@
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C20" s="1" t="s">
         <v>37</v>
       </c>
@@ -996,6 +984,9 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>58</v>

--- a/Fragenbaum.xlsx
+++ b/Fragenbaum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6F75C7-059E-418A-803C-474248885137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55D4BFC-5978-41FA-8373-33A537437EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
   <si>
     <t>ID</t>
   </si>
@@ -640,7 +640,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -801,6 +801,9 @@
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
@@ -838,6 +841,9 @@
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>54</v>
       </c>
@@ -871,6 +877,9 @@
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>56</v>
       </c>
@@ -892,6 +901,9 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>37</v>

--- a/Fragenbaum.xlsx
+++ b/Fragenbaum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55D4BFC-5978-41FA-8373-33A537437EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D7D50C-B8DE-4148-9858-D7DABC50B899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -92,9 +92,6 @@
     <t xml:space="preserve">Erstmalige Erstellung mit unserer Kanzlei (Ja: erstmalig; Nein: wir haben die Erklärung im Vorjahr gemeinsam erstellt)? </t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>A1. Stammdaten</t>
   </si>
   <si>
@@ -203,15 +200,9 @@
     <t xml:space="preserve">A2.2 Flächenaufstellung </t>
   </si>
   <si>
-    <t xml:space="preserve">A2.3.1 Ja </t>
-  </si>
-  <si>
     <t>A2.4 Waldflächen</t>
   </si>
   <si>
-    <t xml:space="preserve">A2.4 Hektar &amp; typische Nutzungen angeben </t>
-  </si>
-  <si>
     <t>B1. Stammdaten &amp; Betreiber</t>
   </si>
   <si>
@@ -233,9 +224,6 @@
     <t>32</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>B2. Flächen &amp; Bewirtschaftung</t>
   </si>
   <si>
@@ -249,6 +237,12 @@
   </si>
   <si>
     <t>Bestätigung: „Ich bestätige die Richtigkeit/Vollständigkeit.“ (Checkbox – Pflicht)</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2.4 Waldflächen: Hektar &amp; typische Nutzungen angeben </t>
   </si>
 </sst>
 </file>
@@ -637,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -681,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -693,7 +687,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -707,7 +701,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -721,7 +715,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>4</v>
@@ -735,7 +729,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>4</v>
@@ -749,7 +743,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>4</v>
@@ -763,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>4</v>
@@ -777,7 +771,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -791,7 +785,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>4</v>
@@ -805,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -817,7 +811,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>4</v>
@@ -831,7 +825,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>4</v>
@@ -839,82 +833,88 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>47</v>
@@ -925,10 +925,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>48</v>
@@ -939,10 +939,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>49</v>
@@ -953,10 +953,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>50</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>51</v>
@@ -981,38 +981,35 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
@@ -1020,68 +1017,54 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Fragenbaum.xlsx
+++ b/Fragenbaum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D7D50C-B8DE-4148-9858-D7DABC50B899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA460EEF-2B85-4A5C-BD2D-D83AF4BB263F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t xml:space="preserve">A2.4 Waldflächen: Hektar &amp; typische Nutzungen angeben </t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -634,7 +637,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -983,6 +986,9 @@
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>55</v>
       </c>

--- a/Fragenbaum.xlsx
+++ b/Fragenbaum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA460EEF-2B85-4A5C-BD2D-D83AF4BB263F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3275F4-0352-42B8-BD32-6501A392E0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -243,9 +243,6 @@
   </si>
   <si>
     <t xml:space="preserve">A2.4 Waldflächen: Hektar &amp; typische Nutzungen angeben </t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -878,7 +875,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>68</v>
@@ -985,9 +982,6 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>55</v>

--- a/Fragenbaum.xlsx
+++ b/Fragenbaum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3275F4-0352-42B8-BD32-6501A392E0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605DED36-5D57-463B-9449-F1A43704B509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -992,7 +992,7 @@
         <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>56</v>
@@ -1006,7 +1006,7 @@
         <v>44</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>57</v>
@@ -1020,7 +1020,7 @@
         <v>45</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>62</v>
@@ -1031,7 +1031,7 @@
         <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>63</v>

--- a/Fragenbaum.xlsx
+++ b/Fragenbaum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605DED36-5D57-463B-9449-F1A43704B509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBDE8D2-C851-4FD4-B56B-D00D84D4C72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -986,6 +986,9 @@
       <c r="C26" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
@@ -1047,6 +1050,9 @@
       <c r="C31" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
@@ -1059,12 +1065,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>66</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Fragenbaum.xlsx
+++ b/Fragenbaum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7D83DE4-033C-44F4-84D9-0E8D85EFA98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7D61BB-C7D6-4945-96D9-A5BB161A700D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{2C25534F-4989-450F-9471-E9E41094711E}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>ParentID</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
     <t>Upload</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>Möchten Sie ein Foto vom Fahrrad hochladen?</t>
+  </si>
+  <si>
+    <t>Frage</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -486,10 +486,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -498,11 +498,11 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -510,10 +510,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
@@ -524,11 +524,11 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -536,10 +536,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -548,11 +548,11 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -560,10 +560,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
@@ -574,11 +574,11 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -586,10 +586,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -598,11 +598,11 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -610,10 +610,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Fragenbaum.xlsx
+++ b/Fragenbaum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7D61BB-C7D6-4945-96D9-A5BB161A700D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBDE8D2-C851-4FD4-B56B-D00D84D4C72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{2C25534F-4989-450F-9471-E9E41094711E}"/>
+    <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -44,50 +44,212 @@
     <t>ParentID</t>
   </si>
   <si>
+    <t>Frage</t>
+  </si>
+  <si>
     <t>Upload</t>
   </si>
   <si>
-    <t>Haben Sie ein Auto?</t>
-  </si>
-  <si>
-    <t>Möchten Sie ein Foto vom Auto hochladen?</t>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erstmalige Erstellung mit unserer Kanzlei (Ja: erstmalig; Nein: wir haben die Erklärung im Vorjahr gemeinsam erstellt)? </t>
+  </si>
+  <si>
+    <t>A1. Stammdaten</t>
+  </si>
+  <si>
+    <t>A1.1 Name/Firma</t>
+  </si>
+  <si>
+    <t>A1.2 Anschrift</t>
+  </si>
+  <si>
+    <t>A1.3 Steuernummer</t>
+  </si>
+  <si>
+    <t>A1.3 AMA-Betreibsnummer</t>
+  </si>
+  <si>
+    <t>A1.3 SVS-Versicherungsnummer</t>
+  </si>
+  <si>
+    <t>A1.3 Bankverbindung (IBAN/BIC)</t>
+  </si>
+  <si>
+    <t>A1.3 Familienstand &amp; Kinder</t>
+  </si>
+  <si>
+    <t>A1.3 Vollmacht &amp; DSGVO-Einwilligung</t>
+  </si>
+  <si>
+    <t>A2. Betriebsstruktur</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2.1 Vollerwerb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2.1 Nebenerwerb </t>
+  </si>
+  <si>
+    <t>A3. Nebetätigkeiten gesamt (Erstaufnahme)</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>A3.1 Be /Verarbeitung eigener Naturprodukte (Direktvermarktung) (Einnahmenübersicht upload)</t>
+  </si>
+  <si>
+    <t>A3.2 Buschenschank / Mostbuschenschank / Almausschank (Nächtigungen/Einnahmen – upload)</t>
+  </si>
+  <si>
+    <t>A3.3 Urlaub am Bauernhof (Betten, Nächtigungen, Einnahmen – upload)</t>
+  </si>
+  <si>
+    <t>A3.4 Vermietung land-/forstw. Betriebsmittel (an wen? Bezirk? Kondition – upload)</t>
+  </si>
+  <si>
+    <t>A3.5 Dienstleistungen für andere land-/forstw. Betriebe (Art, Auftraggeber, Entgelte – upload)</t>
+  </si>
+  <si>
+    <t>A3.6 Sonstige (Beschreibung – Absatz)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2.3 Tierhaltung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2.2 Flächenaufstellung </t>
+  </si>
+  <si>
+    <t>A2.4 Waldflächen</t>
+  </si>
+  <si>
+    <t>B1. Stammdaten &amp; Betreiber</t>
+  </si>
+  <si>
+    <t>B1.1 Änderungen bei Name/Adresse/Bank? (Ja/Nein – Pflicht)</t>
+  </si>
+  <si>
+    <t>B1.2 Betriebsführerwechsel / Mitunternehmerschaft geändert? (Ja/Nein – Pflicht)</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>B2. Flächen &amp; Bewirtschaftung</t>
+  </si>
+  <si>
+    <t>B2.2 Bewirtschaftungsart geändert (Voll/Neben, Bio/konv.)? (Wenn Ja: Kurzbeschreibung angeben)</t>
+  </si>
+  <si>
+    <t>Check: „Ich habe alle Änderungen/Unterlagen für 2024 übermittelt.“ (Ja/Nein – Pflicht)</t>
+  </si>
+  <si>
+    <t>Freitext: „Gibt es noch etwas, das wir wissen sollten?“ (Absatz – optional)</t>
+  </si>
+  <si>
+    <t>Bestätigung: „Ich bestätige die Richtigkeit/Vollständigkeit.“ (Checkbox – Pflicht)</t>
   </si>
   <si>
     <t>ja</t>
   </si>
   <si>
-    <t>Wollen Sie Angaben zu den Reifen machen?</t>
-  </si>
-  <si>
-    <t>Möchten Sie ein Foto der Reifen hochladen?</t>
-  </si>
-  <si>
-    <t>Besitzen Sie ein Haus?</t>
-  </si>
-  <si>
-    <t>Möchten Sie ein Foto vom Haus hochladen?</t>
-  </si>
-  <si>
-    <t>Gibt es eine Garage am Haus?</t>
-  </si>
-  <si>
-    <t>Möchten Sie ein Foto der Garage hochladen?</t>
-  </si>
-  <si>
-    <t>Haben Sie ein Fahrrad?</t>
-  </si>
-  <si>
-    <t>Möchten Sie ein Foto vom Fahrrad hochladen?</t>
-  </si>
-  <si>
-    <t>Frage</t>
+    <t xml:space="preserve">A2.4 Waldflächen: Hektar &amp; typische Nutzungen angeben </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,12 +258,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,13 +290,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,158 +630,457 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF3CED5-BC7E-44F4-8051-AB4929EC0CBE}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.9296875" customWidth="1"/>
+    <col min="1" max="1" width="4.3984375" customWidth="1"/>
+    <col min="2" max="2" width="8.53125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="95.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>5</v>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
+    <sortCondition ref="A2:A7"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Fragenbaum.xlsx
+++ b/Fragenbaum.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBDE8D2-C851-4FD4-B56B-D00D84D4C72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBD1946-0B30-4623-AB8B-0B8DD3B2FC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -243,6 +244,27 @@
   </si>
   <si>
     <t xml:space="preserve">A2.4 Waldflächen: Hektar &amp; typische Nutzungen angeben </t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Name/Firma:text;Anschrift:text;Steuernummer:text;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:dropdown(ledig,verh.,geschieden,verwitwet);Kinder:number;Vollmacht&amp;DSGVO-Einwilligung:checkbox;</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Erwerbsart:dropdown(Vollerwerb, Nebenerwerb)</t>
+  </si>
+  <si>
+    <t>A1.Fragen zum Betrieb</t>
+  </si>
+  <si>
+    <t>Kommentar:text</t>
+  </si>
+  <si>
+    <t>Anzahl Hektar:number;typische Nutzung:textarea</t>
   </si>
 </sst>
 </file>
@@ -631,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -644,7 +666,7 @@
     <col min="3" max="3" width="95.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -657,8 +679,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -666,20 +691,26 @@
         <v>17</v>
       </c>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
+      <c r="B3" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -687,13 +718,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E4" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -701,13 +735,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -715,13 +749,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -729,13 +766,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -743,13 +777,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -757,13 +791,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -771,13 +805,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -785,13 +819,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -799,75 +833,65 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>67</v>
+      <c r="C16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
@@ -875,12 +899,12 @@
         <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -889,10 +913,13 @@
         <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
@@ -900,13 +927,10 @@
         <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
@@ -914,10 +938,10 @@
         <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -927,11 +951,8 @@
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -941,11 +962,8 @@
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>49</v>
+      <c r="C23" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -955,132 +973,470 @@
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>50</v>
+      <c r="C24" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
-    <sortCondition ref="A2:A7"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B2">
+    <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65C3FDB-A463-442D-8004-1172D235B2F8}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.3984375" customWidth="1"/>
+    <col min="2" max="2" width="8.53125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="95.265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Fragenbaum.xlsx
+++ b/Fragenbaum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBD1946-0B30-4623-AB8B-0B8DD3B2FC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB5FB08-1F71-4B85-B8AD-798E65E6560A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -656,7 +656,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -857,6 +857,9 @@
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>64</v>
       </c>
@@ -868,6 +871,9 @@
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C15" s="3" t="s">
         <v>65</v>
       </c>
@@ -878,6 +884,9 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>66</v>

--- a/Fragenbaum.xlsx
+++ b/Fragenbaum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB5FB08-1F71-4B85-B8AD-798E65E6560A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B630A6-B721-412C-876A-D9DCFA5F8966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -656,7 +656,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -899,6 +899,9 @@
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>55</v>
       </c>
@@ -960,6 +963,9 @@
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>64</v>
       </c>
@@ -971,6 +977,9 @@
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C23" s="3" t="s">
         <v>65</v>
       </c>
@@ -981,6 +990,9 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>66</v>

--- a/Fragenbaum.xlsx
+++ b/Fragenbaum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B630A6-B721-412C-876A-D9DCFA5F8966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4A9763-8C68-4745-A541-AD1FCEFAFAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -249,9 +249,6 @@
     <t>Attribute</t>
   </si>
   <si>
-    <t>Name/Firma:text;Anschrift:text;Steuernummer:text;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:dropdown(ledig,verh.,geschieden,verwitwet);Kinder:number;Vollmacht&amp;DSGVO-Einwilligung:checkbox;</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -265,6 +262,12 @@
   </si>
   <si>
     <t>Anzahl Hektar:number;typische Nutzung:textarea</t>
+  </si>
+  <si>
+    <t>B1. Stammkunde</t>
+  </si>
+  <si>
+    <t>Name/Firma:text:pflicht;Anschrift:text;Steuernummer:text:pflicht;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:dropdown(ledig,verh.,geschieden,verwitwet);Kinder:number;Vollmacht&amp;DSGVO-Einwilligung:checkbox;</t>
   </si>
 </sst>
 </file>
@@ -656,7 +659,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -692,7 +695,7 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -700,14 +703,14 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -724,7 +727,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -755,7 +758,7 @@
         <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -899,11 +902,8 @@
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
@@ -963,9 +963,6 @@
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C22" s="1" t="s">
         <v>64</v>
       </c>
@@ -977,9 +974,6 @@
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C23" s="3" t="s">
         <v>65</v>
       </c>
@@ -990,9 +984,6 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>66</v>

--- a/Fragenbaum.xlsx
+++ b/Fragenbaum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4A9763-8C68-4745-A541-AD1FCEFAFAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A94BBF0-5814-4CFD-B04F-E7B6B34F29D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -264,10 +264,37 @@
     <t>Anzahl Hektar:number;typische Nutzung:textarea</t>
   </si>
   <si>
-    <t>B1. Stammkunde</t>
-  </si>
-  <si>
     <t>Name/Firma:text:pflicht;Anschrift:text;Steuernummer:text:pflicht;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:dropdown(ledig,verh.,geschieden,verwitwet);Kinder:number;Vollmacht&amp;DSGVO-Einwilligung:checkbox;</t>
+  </si>
+  <si>
+    <t>Ende</t>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
+  <si>
+    <t>Name/Firma:text;Anschrift:text;Steuernummer:text;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:dropdown(ledig,verh.,geschieden,verwitwet);Kinder:number;Eingabe vollständig:checkbox(Ja,Nein)pflicht</t>
+  </si>
+  <si>
+    <t>B1.1 Stammdatenänderungen?</t>
+  </si>
+  <si>
+    <t>Betriebsführer:text;Mitunternehmer:text;</t>
+  </si>
+  <si>
+    <t>B2. Flächen &amp; Bewirtschaftung Änderung?</t>
+  </si>
+  <si>
+    <t>Erwerbsart:select(Vollerwerb,Nebenerwerb);Bewirtschaftungsart:select(Bio,konventionell);Kurzbeschreibung:text</t>
+  </si>
+  <si>
+    <t>Beschreibung:text</t>
+  </si>
+  <si>
+    <t>Richtig und Vollständig:checkbox:pflicht</t>
+  </si>
+  <si>
+    <t>Fragebogenende</t>
   </si>
 </sst>
 </file>
@@ -656,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -669,7 +696,7 @@
     <col min="3" max="3" width="95.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -680,25 +707,31 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -708,12 +741,15 @@
       <c r="C3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -724,13 +760,16 @@
         <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -740,11 +779,14 @@
       <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F5" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -755,13 +797,16 @@
         <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -771,8 +816,11 @@
       <c r="C7" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -782,11 +830,14 @@
       <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -796,11 +847,14 @@
       <c r="C9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -810,11 +864,14 @@
       <c r="C10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -824,11 +881,14 @@
       <c r="C11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -838,11 +898,14 @@
       <c r="C12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -852,11 +915,14 @@
       <c r="C13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -866,11 +932,14 @@
       <c r="C14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -881,10 +950,16 @@
         <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -895,101 +970,123 @@
         <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+        <v>78</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4</v>
+        <v>84</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
